--- a/employees.xlsx
+++ b/employees.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">spasojevic</t>
   </si>
   <si>
-    <t xml:space="preserve">nemanja@gmail.com</t>
+    <t xml:space="preserve">nemanja@address.com</t>
   </si>
   <si>
     <t xml:space="preserve">marina</t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">subotic</t>
   </si>
   <si>
-    <t xml:space="preserve">marina@gmail.com</t>
+    <t xml:space="preserve">marina@address.com</t>
   </si>
   <si>
     <t xml:space="preserve">sanja</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">maric</t>
   </si>
   <si>
-    <t xml:space="preserve">sanja@gmail.com</t>
+    <t xml:space="preserve">sanja@address.com</t>
   </si>
   <si>
     <t xml:space="preserve">milica</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">markovic</t>
   </si>
   <si>
-    <t xml:space="preserve">milica@gmail.com</t>
+    <t xml:space="preserve">milica@address.com</t>
   </si>
   <si>
     <t xml:space="preserve">danijela</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">stanic</t>
   </si>
   <si>
-    <t xml:space="preserve">danijela@yahoo.com</t>
+    <t xml:space="preserve">danijela@address.com</t>
   </si>
 </sst>
 </file>
@@ -168,10 +168,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.9"/>
@@ -235,11 +235,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="nemanja@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="marina@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId3" display="sanja@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId4" display="milica@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId5" display="danijela@yahoo.com"/>
+    <hyperlink ref="C1" r:id="rId1" display="nemanja@address.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="marina@address.com"/>
+    <hyperlink ref="C3" r:id="rId3" display="sanja@address.com"/>
+    <hyperlink ref="C4" r:id="rId4" display="milica@address.com"/>
+    <hyperlink ref="C5" r:id="rId5" display="danijela@address.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
